--- a/data/usda-families/size/20250610/20250610 Oyster ImageJ.xlsx
+++ b/data/usda-families/size/20250610/20250610 Oyster ImageJ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carolynkounellas/Desktop/Roberts Lab /Resazurin oyster tests/Oyster ImageJ/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/oysters/resazurin-assay-development/data/usda-families/size/20250610/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{663A7CEE-F852-4643-A0FC-9DB1EECFA3FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76CA2C01-BF13-0347-B9BD-B614526F00AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{16815577-D7C9-3F4C-9E81-A4DE1EDCCC6E}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="17760" xr2:uid="{16815577-D7C9-3F4C-9E81-A4DE1EDCCC6E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -505,7 +505,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A2" sqref="A2:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -526,7 +526,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>20250603</v>
+        <v>20250610</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -540,7 +540,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>20250603</v>
+        <v>20250610</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
@@ -554,7 +554,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>20250603</v>
+        <v>20250610</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
@@ -568,7 +568,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>20250603</v>
+        <v>20250610</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
@@ -582,7 +582,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>20250603</v>
+        <v>20250610</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>8</v>
@@ -596,7 +596,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>20250603</v>
+        <v>20250610</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>9</v>
@@ -610,7 +610,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>20250603</v>
+        <v>20250610</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>10</v>
@@ -624,7 +624,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>20250603</v>
+        <v>20250610</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>11</v>
@@ -638,7 +638,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>20250603</v>
+        <v>20250610</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>12</v>
@@ -652,7 +652,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>20250603</v>
+        <v>20250610</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>13</v>
@@ -666,7 +666,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>20250603</v>
+        <v>20250610</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>14</v>
@@ -680,7 +680,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>20250603</v>
+        <v>20250610</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>15</v>
@@ -694,7 +694,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>20250603</v>
+        <v>20250610</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>16</v>
@@ -708,7 +708,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>20250603</v>
+        <v>20250610</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>17</v>
@@ -722,7 +722,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>20250603</v>
+        <v>20250610</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>18</v>
@@ -736,7 +736,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>20250603</v>
+        <v>20250610</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>19</v>
@@ -750,7 +750,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>20250603</v>
+        <v>20250610</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>20</v>
@@ -764,7 +764,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>20250603</v>
+        <v>20250610</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>21</v>
@@ -778,7 +778,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>20250603</v>
+        <v>20250610</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>22</v>
@@ -792,7 +792,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>20250603</v>
+        <v>20250610</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>23</v>
@@ -806,7 +806,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>20250603</v>
+        <v>20250610</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>24</v>
@@ -820,7 +820,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>20250603</v>
+        <v>20250610</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>25</v>
@@ -834,7 +834,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>20250603</v>
+        <v>20250610</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>26</v>
@@ -848,7 +848,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>20250603</v>
+        <v>20250610</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>27</v>
@@ -862,7 +862,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>20250603</v>
+        <v>20250610</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>28</v>
